--- a/Documentation/Sample Data/91codewords.xlsx
+++ b/Documentation/Sample Data/91codewords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531384\Desktop\Project\Codeword-GDPII\Documentation\Sample Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D360B2-764B-4371-91B9-285A1A3F38B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D0C5A3-622D-4526-B0E4-E2D16A81208C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9C9CA1DB-B53F-4F86-B663-5B30F3274407}"/>
   </bookViews>
@@ -670,7 +670,7 @@
   <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A353" sqref="A353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Sample Data/91codewords.xlsx
+++ b/Documentation/Sample Data/91codewords.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531384\Desktop\Project\Codeword-GDPII\Documentation\Sample Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531384\Desktop\Codeword\Codeword-GDPII\Documentation\Sample Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D0C5A3-622D-4526-B0E4-E2D16A81208C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778B4D77-D9E7-41D0-97A2-F1BBB115F553}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9C9CA1DB-B53F-4F86-B663-5B30F3274407}"/>
   </bookViews>
@@ -30,12 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>AFRICA</t>
-  </si>
-  <si>
-    <t>ALMOND</t>
   </si>
   <si>
     <t>ANGER</t>
@@ -670,7 +667,7 @@
   <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A353" sqref="A353"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,548 +682,548 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="1">
+        <v>12312</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1"/>
     </row>
     <row r="57" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1"/>
     </row>
     <row r="70" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1"/>
     </row>
     <row r="71" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1"/>
     </row>
     <row r="72" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1"/>
     </row>
     <row r="73" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1"/>
     </row>
     <row r="74" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1"/>
     </row>
     <row r="75" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1"/>
     </row>
     <row r="76" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1"/>
     </row>
     <row r="77" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1"/>
     </row>
     <row r="78" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1"/>
     </row>
     <row r="79" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1"/>
     </row>
     <row r="80" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1"/>
     </row>
     <row r="81" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1"/>
     </row>
     <row r="82" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1"/>
     </row>
     <row r="83" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1"/>
     </row>
     <row r="84" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1"/>
     </row>
     <row r="85" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1"/>
     </row>
     <row r="87" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="1"/>
     </row>
     <row r="88" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="1"/>
     </row>
     <row r="89" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1"/>
     </row>
     <row r="90" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1"/>
     </row>
     <row r="91" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="1"/>
     </row>
     <row r="92" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="1"/>
     </row>

--- a/Documentation/Sample Data/91codewords.xlsx
+++ b/Documentation/Sample Data/91codewords.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S531384\Desktop\Codeword\Codeword-GDPII\Documentation\Sample Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GDP II\Codeword-GDPII\Documentation\Sample Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778B4D77-D9E7-41D0-97A2-F1BBB115F553}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC3C890-398B-49F9-9AD4-0899C92BF1BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9C9CA1DB-B53F-4F86-B663-5B30F3274407}"/>
   </bookViews>
@@ -344,12 +344,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BD555D-849D-4A7D-847C-A1A487A0923A}">
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,15 +1226,6 @@
       </c>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A93" s="2"/>
-    </row>
-    <row r="94" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
